--- a/Planilha_de_gastos.xlsx
+++ b/Planilha_de_gastos.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Projetos_Excel\Planilha de Gastos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E828C86-12CF-45E3-80B0-E9912112A045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C21588-6114-444C-9222-654CD51ED42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FA2D3C9D-5B1E-42AE-AABE-60910E481937}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planilha1!$A$2:$J$28</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Planilha1!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,9 +37,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+  <si>
+    <t>Planilha de Gastos</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>Educação</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Contas</t>
+  </si>
+  <si>
+    <t>Nome do Gasto</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Salário</t>
+  </si>
+  <si>
+    <t>Automóvel</t>
+  </si>
+  <si>
+    <t>Situação</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,16 +88,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -60,18 +160,201 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="20% - Ênfase4" xfId="3" builtinId="42"/>
+    <cellStyle name="60% - Ênfase3" xfId="2" builtinId="40"/>
+    <cellStyle name="60% - Ênfase4" xfId="4" builtinId="44"/>
+    <cellStyle name="Ênfase3" xfId="1" builtinId="37"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -82,6 +365,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00CA99AB-E9D4-446C-9EB3-EF988E7DFBEA}" name="Tabela2" displayName="Tabela2" ref="N4:O7" totalsRowCount="1" headerRowDxfId="22">
+  <autoFilter ref="N4:O6" xr:uid="{00CA99AB-E9D4-446C-9EB3-EF988E7DFBEA}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CF727FCD-598E-4F2E-83A5-F0718AE20E73}" name="Nome do Gasto" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{AE6E43BC-4AA1-427B-8C28-B3EC1F3B69B1}" name="Valor" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2CADEF53-512E-4228-877E-44BE6B30F53D}" name="Tabela28" displayName="Tabela28" ref="E4:F7" totalsRowCount="1" headerRowDxfId="18">
+  <autoFilter ref="E4:F6" xr:uid="{2CADEF53-512E-4228-877E-44BE6B30F53D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{17C191E3-909A-45A1-AD6B-E49225DB09DE}" name="Nome do Gasto" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{D057005D-2C1E-409A-8F6F-422DAB618F37}" name="Valor" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5F6DE25E-BFDE-4344-9A4F-12B9C575C266}" name="Tabela29" displayName="Tabela29" ref="E10:F13" totalsRowCount="1" headerRowDxfId="16">
+  <autoFilter ref="E10:F12" xr:uid="{5F6DE25E-BFDE-4344-9A4F-12B9C575C266}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{20C2EE74-ED8F-435B-BC7E-9D450DC64F0C}" name="Nome do Gasto" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{7D79BD16-40C4-42A9-B39F-EFF404665796}" name="Valor" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{05131C80-0398-4416-A01F-EC4A06B9E8B8}" name="Tabela210" displayName="Tabela210" ref="E16:F19" totalsRowCount="1" headerRowDxfId="14">
+  <autoFilter ref="E16:F18" xr:uid="{05131C80-0398-4416-A01F-EC4A06B9E8B8}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1B89F9C9-81EB-4CB9-92B6-6C6E170EFB02}" name="Nome do Gasto" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{F3E25C82-8A79-48EE-9D9A-1C4DDE76E7A6}" name="Valor" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{421449F6-6469-4C06-A485-D431F49B4EDE}" name="Tabela211" displayName="Tabela211" ref="E22:F25" totalsRowCount="1" headerRowDxfId="11">
+  <autoFilter ref="E22:F24" xr:uid="{421449F6-6469-4C06-A485-D431F49B4EDE}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{50EB3D18-C557-4335-8B4C-E37A2E6E057B}" name="Nome do Gasto" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{20E92F3A-5CB4-42B8-A8BE-9A3D552D7E46}" name="Valor" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,70 +722,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74F1C33-FB8F-4273-A213-C367481F74D2}">
-  <dimension ref="C1:G8"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="12">
+        <f>SUBTOTAL(109,Tabela28[Valor])</f>
+        <v>0</v>
+      </c>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="12">
+        <f>SUBTOTAL(109,Tabela2[Valor])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="6"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="12">
+        <f>SUBTOTAL(109,Tabela29[Valor])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="6"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="12">
+        <f>SUBTOTAL(109,Tabela210[Valor])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="6"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="12">
+        <f>SUBTOTAL(109,Tabela211[Valor])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="10">
+        <f>SUM(Tabela211[[#Totals],[Valor]],Tabela210[[#Totals],[Valor]],Tabela29[[#Totals],[Valor]],Tabela28[[#Totals],[Valor]],)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="13" t="str">
+        <f>IF(F27&lt;=I4,"Seguro","Endividado")</f>
+        <v>Seguro</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <mergeCells count="6">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+      <formula>$I$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
+      <formula>$I$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Seguro"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Endividado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="5">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>